--- a/dist/data/products.xlsx
+++ b/dist/data/products.xlsx
@@ -1,151 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81863587-DF5F-5142-AABA-3D53AA47916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>slug</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>featured</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>Royal Volubiks Diamond Pendant</t>
-  </si>
-  <si>
-    <t>royal-diamond-pendant</t>
-  </si>
-  <si>
-    <t>NGN</t>
-  </si>
-  <si>
-    <t>A brilliant diamond pendant with classic setting.</t>
-  </si>
-  <si>
-    <t>necklace</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>diamond;pendant;luxury</t>
-  </si>
-  <si>
-    <t>Royal Volubiks Gold Ring</t>
-  </si>
-  <si>
-    <t>royal-gold-ring</t>
-  </si>
-  <si>
-    <t>Handcrafted gold ring with polished finish.</t>
-  </si>
-  <si>
-    <t>rings</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>gold;ring</t>
-  </si>
-  <si>
-    <t>Royal Volubiks Pearl Earrings</t>
-  </si>
-  <si>
-    <t>royal-pearl-earrings</t>
-  </si>
-  <si>
-    <t>/images/pearl-earrings.jpg</t>
-  </si>
-  <si>
-    <t>Pearl drop earrings for elegant occasions.</t>
-  </si>
-  <si>
-    <t>earrings</t>
-  </si>
-  <si>
-    <t>pearl;earrings</t>
-  </si>
-  <si>
-    <t>Sample Pendant</t>
-  </si>
-  <si>
-    <t>sample-pendant</t>
-  </si>
-  <si>
-    <t>../public/images/IMG.jpg</t>
-  </si>
-  <si>
-    <t>Sample pendant for import test</t>
-  </si>
-  <si>
-    <t>sample;pendant</t>
-  </si>
-  <si>
-    <t>/images/1.jpg</t>
-  </si>
-  <si>
-    <t>/images/2.jpg</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,23 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -515,194 +396,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>slug</v>
+      </c>
+      <c r="D1" t="str">
+        <v>price</v>
+      </c>
+      <c r="E1" t="str">
+        <v>currency</v>
+      </c>
+      <c r="F1" t="str">
+        <v>image</v>
+      </c>
+      <c r="G1" t="str">
+        <v>description</v>
+      </c>
+      <c r="H1" t="str">
+        <v>category</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featured</v>
+      </c>
+      <c r="J1" t="str">
+        <v>inventory</v>
+      </c>
+      <c r="K1" t="str">
+        <v>tags</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>24899</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+      <c r="B2" t="str">
+        <v>Premium Item #1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>item-1</v>
+      </c>
+      <c r="D2">
+        <v>2200</v>
+      </c>
+      <c r="E2" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F2" t="str">
+        <v>public/data/images/C10_1.jpg; public/data/images/C10_2.jpg</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Exclusive premium product collection item 1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I2" t="str">
+        <v>false</v>
       </c>
       <c r="J2">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4999</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
+      <c r="B3" t="str">
+        <v>Premium Item #2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>item-2</v>
+      </c>
+      <c r="D3">
+        <v>2400</v>
+      </c>
+      <c r="E3" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F3" t="str">
+        <v>public/data/images/C11_1.jpg; public/data/images/C11_2.jpg</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Exclusive premium product collection item 2</v>
+      </c>
+      <c r="H3" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I3" t="str">
+        <v>false</v>
       </c>
       <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
+      <c r="B4" t="str">
+        <v>Premium Item #3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>item-3</v>
       </c>
       <c r="D4">
-        <v>279</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
+        <v>2600</v>
+      </c>
+      <c r="E4" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F4" t="str">
+        <v>public/data/images/C13_1.jpg; public/data/images/C14_1.jpg</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Exclusive premium product collection item 3</v>
+      </c>
+      <c r="H4" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I4" t="str">
+        <v>false</v>
       </c>
       <c r="J4">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="K4" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
+        <v>Premium Item #4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>item-4</v>
+      </c>
+      <c r="D5">
+        <v>2800</v>
+      </c>
+      <c r="E5" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F5" t="str">
+        <v>public/data/images/C15_1.jpg; public/data/images/C16_1.jpg</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Exclusive premium product collection item 4</v>
+      </c>
+      <c r="H5" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I5" t="str">
+        <v>false</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Premium Item #5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>item-5</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F6" t="str">
+        <v>public/data/images/C17_1.jpg; public/data/images/C18_1.jpg</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Exclusive premium product collection item 5</v>
+      </c>
+      <c r="H6" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I6" t="str">
+        <v>true</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Premium Item #6</v>
+      </c>
+      <c r="C7" t="str">
+        <v>item-6</v>
+      </c>
+      <c r="D7">
+        <v>3200</v>
+      </c>
+      <c r="E7" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F7" t="str">
+        <v>public/data/images/C19_1.jpg; public/data/images/C1_1.jpg</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Exclusive premium product collection item 6</v>
+      </c>
+      <c r="H7" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I7" t="str">
+        <v>false</v>
+      </c>
+      <c r="J7">
+        <v>22</v>
+      </c>
+      <c r="K7" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Premium Item #7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>item-7</v>
+      </c>
+      <c r="D8">
+        <v>3400</v>
+      </c>
+      <c r="E8" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F8" t="str">
+        <v>public/data/images/C1_2.jpg; public/data/images/C1_3.jpg</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Exclusive premium product collection item 7</v>
+      </c>
+      <c r="H8" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I8" t="str">
+        <v>false</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Premium Item #8</v>
+      </c>
+      <c r="C9" t="str">
+        <v>item-8</v>
+      </c>
+      <c r="D9">
+        <v>3600</v>
+      </c>
+      <c r="E9" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F9" t="str">
+        <v>public/data/images/C20_1.jpg; public/data/images/C21_1.jpg</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Exclusive premium product collection item 8</v>
+      </c>
+      <c r="H9" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I9" t="str">
+        <v>false</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+      <c r="K9" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Premium Item #9</v>
+      </c>
+      <c r="C10" t="str">
+        <v>item-9</v>
+      </c>
+      <c r="D10">
+        <v>3800</v>
+      </c>
+      <c r="E10" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F10" t="str">
+        <v>public/data/images/C21_2.jpg; public/data/images/C22_1.jpg</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Exclusive premium product collection item 9</v>
+      </c>
+      <c r="H10" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I10" t="str">
+        <v>false</v>
+      </c>
+      <c r="J10">
+        <v>28</v>
+      </c>
+      <c r="K10" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Premium Item #10</v>
+      </c>
+      <c r="C11" t="str">
+        <v>item-10</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F11" t="str">
+        <v>public/data/images/C22_2.jpg; public/data/images/C23_1.jpg</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Exclusive premium product collection item 10</v>
+      </c>
+      <c r="H11" t="str">
+        <v>jewelries</v>
+      </c>
+      <c r="I11" t="str">
+        <v>true</v>
+      </c>
+      <c r="J11">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>1499</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="K11" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Premium Item #11</v>
+      </c>
+      <c r="C12" t="str">
+        <v>item-11</v>
+      </c>
+      <c r="D12">
+        <v>4200</v>
+      </c>
+      <c r="E12" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F12" t="str">
+        <v>public/data/images/C23_2.jpg; public/data/images/C24_1.jpg</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Exclusive premium product collection item 11</v>
+      </c>
+      <c r="H12" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I12" t="str">
+        <v>false</v>
+      </c>
+      <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K12" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Premium Item #12</v>
+      </c>
+      <c r="C13" t="str">
+        <v>item-12</v>
+      </c>
+      <c r="D13">
+        <v>4400</v>
+      </c>
+      <c r="E13" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F13" t="str">
+        <v>public/data/images/C24_2.jpg; public/data/images/C25_1.jpg</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Exclusive premium product collection item 12</v>
+      </c>
+      <c r="H13" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I13" t="str">
+        <v>false</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B14" t="str">
+        <v>Premium Item #13</v>
+      </c>
+      <c r="C14" t="str">
+        <v>item-13</v>
+      </c>
+      <c r="D14">
+        <v>4600</v>
+      </c>
+      <c r="E14" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F14" t="str">
+        <v>public/data/images/C25_2.jpg; public/data/images/C26_1.jpg</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Exclusive premium product collection item 13</v>
+      </c>
+      <c r="H14" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I14" t="str">
+        <v>false</v>
+      </c>
+      <c r="J14">
+        <v>36</v>
+      </c>
+      <c r="K14" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Premium Item #14</v>
+      </c>
+      <c r="C15" t="str">
+        <v>item-14</v>
+      </c>
+      <c r="D15">
+        <v>4800</v>
+      </c>
+      <c r="E15" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F15" t="str">
+        <v>public/data/images/C26_2.jpg; public/data/images/C27_1.jpg</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Exclusive premium product collection item 14</v>
+      </c>
+      <c r="H15" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I15" t="str">
+        <v>false</v>
+      </c>
+      <c r="J15">
+        <v>38</v>
+      </c>
+      <c r="K15" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="B16" t="str">
+        <v>Premium Item #15</v>
+      </c>
+      <c r="C16" t="str">
+        <v>item-15</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F16" t="str">
+        <v>public/data/images/C27_2.jpg; public/data/images/C27_3.jpg</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Exclusive premium product collection item 15</v>
+      </c>
+      <c r="H16" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I16" t="str">
+        <v>true</v>
+      </c>
+      <c r="J16">
+        <v>40</v>
+      </c>
+      <c r="K16" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
+      <c r="B17" t="str">
+        <v>Premium Item #16</v>
+      </c>
+      <c r="C17" t="str">
+        <v>item-16</v>
+      </c>
+      <c r="D17">
+        <v>5200</v>
+      </c>
+      <c r="E17" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F17" t="str">
+        <v>public/data/images/C28_1.jpg; public/data/images/C29_1.jpg</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Exclusive premium product collection item 16</v>
+      </c>
+      <c r="H17" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I17" t="str">
+        <v>false</v>
+      </c>
+      <c r="J17">
+        <v>42</v>
+      </c>
+      <c r="K17" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Premium Item #17</v>
+      </c>
+      <c r="C18" t="str">
+        <v>item-17</v>
+      </c>
+      <c r="D18">
+        <v>5400</v>
+      </c>
+      <c r="E18" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F18" t="str">
+        <v>public/data/images/C2_1.jpg; public/data/images/C2_2.jpg</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Exclusive premium product collection item 17</v>
+      </c>
+      <c r="H18" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I18" t="str">
+        <v>false</v>
+      </c>
+      <c r="J18">
+        <v>44</v>
+      </c>
+      <c r="K18" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Premium Item #18</v>
+      </c>
+      <c r="C19" t="str">
+        <v>item-18</v>
+      </c>
+      <c r="D19">
+        <v>5600</v>
+      </c>
+      <c r="E19" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F19" t="str">
+        <v>public/data/images/C2_3.jpg; public/data/images/C30_1.jpg</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Exclusive premium product collection item 18</v>
+      </c>
+      <c r="H19" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I19" t="str">
+        <v>false</v>
+      </c>
+      <c r="J19">
+        <v>46</v>
+      </c>
+      <c r="K19" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Premium Item #19</v>
+      </c>
+      <c r="C20" t="str">
+        <v>item-19</v>
+      </c>
+      <c r="D20">
+        <v>5800</v>
+      </c>
+      <c r="E20" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F20" t="str">
+        <v>public/data/images/C31_1.jpg; public/data/images/C32_1.jpg</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Exclusive premium product collection item 19</v>
+      </c>
+      <c r="H20" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I20" t="str">
+        <v>false</v>
+      </c>
+      <c r="J20">
+        <v>48</v>
+      </c>
+      <c r="K20" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Premium Item #20</v>
+      </c>
+      <c r="C21" t="str">
+        <v>item-20</v>
+      </c>
+      <c r="D21">
+        <v>6000</v>
+      </c>
+      <c r="E21" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F21" t="str">
+        <v>public/data/images/C33_1.jpg; public/data/images/C34_1.jpg</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Exclusive premium product collection item 20</v>
+      </c>
+      <c r="H21" t="str">
+        <v>clothings</v>
+      </c>
+      <c r="I21" t="str">
+        <v>true</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Premium Item #21</v>
+      </c>
+      <c r="C22" t="str">
+        <v>item-21</v>
+      </c>
+      <c r="D22">
+        <v>6200</v>
+      </c>
+      <c r="E22" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F22" t="str">
+        <v>public/data/images/C35_1.jpg; public/data/images/C36_1.jpg</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Exclusive premium product collection item 21</v>
+      </c>
+      <c r="H22" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I22" t="str">
+        <v>false</v>
+      </c>
+      <c r="J22">
+        <v>52</v>
+      </c>
+      <c r="K22" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Premium Item #22</v>
+      </c>
+      <c r="C23" t="str">
+        <v>item-22</v>
+      </c>
+      <c r="D23">
+        <v>6400</v>
+      </c>
+      <c r="E23" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F23" t="str">
+        <v>public/data/images/C37_1.jpg; public/data/images/C38_1.jpg</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Exclusive premium product collection item 22</v>
+      </c>
+      <c r="H23" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I23" t="str">
+        <v>false</v>
+      </c>
+      <c r="J23">
+        <v>54</v>
+      </c>
+      <c r="K23" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Premium Item #23</v>
+      </c>
+      <c r="C24" t="str">
+        <v>item-23</v>
+      </c>
+      <c r="D24">
+        <v>6600</v>
+      </c>
+      <c r="E24" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F24" t="str">
+        <v>public/data/images/C38_2.jpg; public/data/images/C39_1.jpg</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Exclusive premium product collection item 23</v>
+      </c>
+      <c r="H24" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I24" t="str">
+        <v>false</v>
+      </c>
+      <c r="J24">
+        <v>56</v>
+      </c>
+      <c r="K24" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Premium Item #24</v>
+      </c>
+      <c r="C25" t="str">
+        <v>item-24</v>
+      </c>
+      <c r="D25">
+        <v>6800</v>
+      </c>
+      <c r="E25" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F25" t="str">
+        <v>public/data/images/C3_1.jpg; public/data/images/C3_2.jpg</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Exclusive premium product collection item 24</v>
+      </c>
+      <c r="H25" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I25" t="str">
+        <v>false</v>
+      </c>
+      <c r="J25">
+        <v>58</v>
+      </c>
+      <c r="K25" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Premium Item #25</v>
+      </c>
+      <c r="C26" t="str">
+        <v>item-25</v>
+      </c>
+      <c r="D26">
+        <v>7000</v>
+      </c>
+      <c r="E26" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F26" t="str">
+        <v>public/data/images/C3_3.jpg; public/data/images/C40_1.jpg</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Exclusive premium product collection item 25</v>
+      </c>
+      <c r="H26" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I26" t="str">
+        <v>true</v>
+      </c>
+      <c r="J26">
+        <v>60</v>
+      </c>
+      <c r="K26" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Premium Item #26</v>
+      </c>
+      <c r="C27" t="str">
+        <v>item-26</v>
+      </c>
+      <c r="D27">
+        <v>7200</v>
+      </c>
+      <c r="E27" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F27" t="str">
+        <v>public/data/images/C40_2.jpg; public/data/images/C41_1.jpg</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Exclusive premium product collection item 26</v>
+      </c>
+      <c r="H27" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I27" t="str">
+        <v>false</v>
+      </c>
+      <c r="J27">
+        <v>62</v>
+      </c>
+      <c r="K27" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Premium Item #27</v>
+      </c>
+      <c r="C28" t="str">
+        <v>item-27</v>
+      </c>
+      <c r="D28">
+        <v>7400</v>
+      </c>
+      <c r="E28" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F28" t="str">
+        <v>public/data/images/C4_1.jpg; public/data/images/C4_2.jpg</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Exclusive premium product collection item 27</v>
+      </c>
+      <c r="H28" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I28" t="str">
+        <v>false</v>
+      </c>
+      <c r="J28">
+        <v>64</v>
+      </c>
+      <c r="K28" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Premium Item #28</v>
+      </c>
+      <c r="C29" t="str">
+        <v>item-28</v>
+      </c>
+      <c r="D29">
+        <v>7600</v>
+      </c>
+      <c r="E29" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F29" t="str">
+        <v>public/data/images/C5_1.jpg; public/data/images/C5_2.jpg</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Exclusive premium product collection item 28</v>
+      </c>
+      <c r="H29" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I29" t="str">
+        <v>false</v>
+      </c>
+      <c r="J29">
+        <v>66</v>
+      </c>
+      <c r="K29" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Premium Item #29</v>
+      </c>
+      <c r="C30" t="str">
+        <v>item-29</v>
+      </c>
+      <c r="D30">
+        <v>7800</v>
+      </c>
+      <c r="E30" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F30" t="str">
+        <v>public/data/images/C6_1.jpg; public/data/images/C6_2.jpg</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Exclusive premium product collection item 29</v>
+      </c>
+      <c r="H30" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I30" t="str">
+        <v>false</v>
+      </c>
+      <c r="J30">
+        <v>68</v>
+      </c>
+      <c r="K30" t="str">
+        <v>premium;handcrafted;quality</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Premium Item #30</v>
+      </c>
+      <c r="C31" t="str">
+        <v>item-30</v>
+      </c>
+      <c r="D31">
+        <v>8000</v>
+      </c>
+      <c r="E31" t="str">
+        <v>NGN</v>
+      </c>
+      <c r="F31" t="str">
+        <v>public/data/images/C6_3.jpg; public/data/images/C7_1.jpg</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Exclusive premium product collection item 30</v>
+      </c>
+      <c r="H31" t="str">
+        <v>drinks</v>
+      </c>
+      <c r="I31" t="str">
+        <v>true</v>
+      </c>
+      <c r="J31">
+        <v>70</v>
+      </c>
+      <c r="K31" t="str">
+        <v>premium;handcrafted;quality</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 A4:K5 A2:C2 E2 A3:C3 E3 H2:K2 G3:K3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K31"/>
   </ignoredErrors>
 </worksheet>
 </file>